--- a/eth.xlsx
+++ b/eth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haide\Downloads\Crypto-Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9231AB0-3729-4C45-A4E5-36AD5A365572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA33704-05BA-440C-A49D-8D2B184A6852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,37 +879,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ABE380"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="AAH1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AAW9" sqref="AAW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="32" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="53" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="62" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="84" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="114" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="115" max="123" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="145" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="146" max="154" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="155" max="176" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="177" max="185" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="186" max="206" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="207" max="215" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="216" max="237" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="238" max="246" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="247" max="267" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="268" max="276" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="277" max="298" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="299" max="307" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="308" max="327" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="328" max="336" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="337" max="358" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="359" max="367" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="35" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="56" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="65" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="87" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="88" max="117" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="118" max="126" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="127" max="148" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="149" max="157" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="158" max="179" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="180" max="188" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="189" max="209" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="210" max="218" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="219" max="240" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="241" max="249" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="250" max="270" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="271" max="279" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="280" max="301" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="302" max="310" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="311" max="329" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="330" max="338" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="339" max="360" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="361" max="368" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="369" max="390" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="391" max="398" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="399" max="419" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="420" max="428" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="429" max="450" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="451" max="480" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="481" max="489" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="490" max="511" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="512" max="520" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="521" max="542" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="543" max="551" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="552" max="572" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="573" max="581" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="582" max="603" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="604" max="612" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="613" max="633" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="634" max="642" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="643" max="664" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="665" max="673" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="674" max="693" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="694" max="702" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="703" max="724" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="725" max="733" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:733" x14ac:dyDescent="0.3">

--- a/eth.xlsx
+++ b/eth.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haide\Downloads\Crypto-Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA33704-05BA-440C-A49D-8D2B184A6852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBFC683-BA15-4571-AE99-5098EA9BF01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETHUSD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -879,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ABE380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AAH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AAW9" sqref="AAW9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,30 +922,30 @@
     <col min="311" max="329" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="330" max="338" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="339" max="360" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="361" max="368" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="369" max="390" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="391" max="398" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="399" max="419" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="420" max="428" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="429" max="450" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="451" max="480" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="481" max="489" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="490" max="511" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="512" max="520" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="521" max="542" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="543" max="551" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="552" max="572" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="573" max="581" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="582" max="603" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="604" max="612" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="613" max="633" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="634" max="642" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="643" max="664" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="665" max="673" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="674" max="693" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="694" max="702" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="703" max="724" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="725" max="733" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="361" max="369" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="370" max="391" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="392" max="400" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="401" max="421" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="422" max="430" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="431" max="452" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="453" max="482" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="483" max="491" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="492" max="513" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="514" max="522" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="523" max="544" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="545" max="553" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="554" max="574" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="575" max="583" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="584" max="605" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="606" max="614" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="615" max="635" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="636" max="644" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="645" max="666" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="667" max="675" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="676" max="695" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="696" max="704" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="705" max="726" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="727" max="733" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:733" x14ac:dyDescent="0.3">
@@ -2038,1102 +2051,1102 @@
         <v>44199</v>
       </c>
       <c r="ND1" s="1">
+        <v>44198</v>
+      </c>
+      <c r="NE1" s="1">
         <v>44197</v>
       </c>
-      <c r="NE1" s="1">
+      <c r="NF1" s="1">
         <v>44196</v>
       </c>
-      <c r="NF1" s="1">
+      <c r="NG1" s="1">
         <v>44195</v>
       </c>
-      <c r="NG1" s="1">
+      <c r="NH1" s="1">
         <v>44194</v>
       </c>
-      <c r="NH1" s="1">
+      <c r="NI1" s="1">
         <v>44193</v>
       </c>
-      <c r="NI1" s="1">
+      <c r="NJ1" s="1">
         <v>44192</v>
       </c>
-      <c r="NJ1" s="1">
+      <c r="NK1" s="1">
         <v>44191</v>
       </c>
-      <c r="NK1" s="1">
+      <c r="NL1" s="1">
         <v>44190</v>
       </c>
-      <c r="NL1" s="1">
+      <c r="NM1" s="1">
         <v>44189</v>
       </c>
-      <c r="NM1" s="1">
+      <c r="NN1" s="1">
         <v>44188</v>
       </c>
-      <c r="NN1" s="1">
+      <c r="NO1" s="1">
         <v>44187</v>
       </c>
-      <c r="NO1" s="1">
+      <c r="NP1" s="1">
         <v>44186</v>
       </c>
-      <c r="NP1" s="1">
+      <c r="NQ1" s="1">
         <v>44185</v>
       </c>
-      <c r="NQ1" s="1">
+      <c r="NR1" s="1">
         <v>44184</v>
       </c>
-      <c r="NR1" s="1">
+      <c r="NS1" s="1">
         <v>44183</v>
       </c>
-      <c r="NS1" s="1">
+      <c r="NT1" s="1">
         <v>44182</v>
       </c>
-      <c r="NT1" s="1">
+      <c r="NU1" s="1">
         <v>44181</v>
       </c>
-      <c r="NU1" s="1">
+      <c r="NV1" s="1">
         <v>44180</v>
       </c>
-      <c r="NV1" s="1">
+      <c r="NW1" s="1">
         <v>44179</v>
       </c>
-      <c r="NW1" s="1">
+      <c r="NX1" s="1">
         <v>44178</v>
       </c>
-      <c r="NX1" s="1">
+      <c r="NY1" s="1">
         <v>44177</v>
       </c>
-      <c r="NY1" s="1">
+      <c r="NZ1" s="1">
         <v>44176</v>
       </c>
-      <c r="NZ1" s="1">
+      <c r="OA1" s="1">
         <v>44175</v>
       </c>
-      <c r="OA1" s="1">
+      <c r="OB1" s="1">
         <v>44174</v>
       </c>
-      <c r="OB1" s="1">
+      <c r="OC1" s="1">
         <v>44173</v>
       </c>
-      <c r="OC1" s="1">
+      <c r="OD1" s="1">
         <v>44172</v>
       </c>
-      <c r="OD1" s="1">
+      <c r="OE1" s="1">
         <v>44171</v>
       </c>
-      <c r="OE1" s="1">
+      <c r="OF1" s="1">
         <v>44170</v>
       </c>
-      <c r="OF1" s="1">
+      <c r="OG1" s="1">
         <v>44169</v>
       </c>
-      <c r="OG1" s="1">
+      <c r="OH1" s="1">
         <v>44168</v>
       </c>
-      <c r="OH1" s="1">
+      <c r="OI1" s="1">
+        <v>44167</v>
+      </c>
+      <c r="OJ1" s="1">
         <v>44166</v>
       </c>
-      <c r="OI1" s="1">
+      <c r="OK1" s="1">
         <v>44165</v>
       </c>
-      <c r="OJ1" s="1">
+      <c r="OL1" s="1">
         <v>44164</v>
       </c>
-      <c r="OK1" s="1">
+      <c r="OM1" s="1">
         <v>44163</v>
       </c>
-      <c r="OL1" s="1">
+      <c r="ON1" s="1">
         <v>44162</v>
       </c>
-      <c r="OM1" s="1">
+      <c r="OO1" s="1">
         <v>44161</v>
       </c>
-      <c r="ON1" s="1">
+      <c r="OP1" s="1">
         <v>44160</v>
       </c>
-      <c r="OO1" s="1">
+      <c r="OQ1" s="1">
         <v>44159</v>
       </c>
-      <c r="OP1" s="1">
+      <c r="OR1" s="1">
         <v>44158</v>
       </c>
-      <c r="OQ1" s="1">
+      <c r="OS1" s="1">
         <v>44157</v>
       </c>
-      <c r="OR1" s="1">
+      <c r="OT1" s="1">
         <v>44156</v>
       </c>
-      <c r="OS1" s="1">
+      <c r="OU1" s="1">
         <v>44155</v>
       </c>
-      <c r="OT1" s="1">
+      <c r="OV1" s="1">
         <v>44154</v>
       </c>
-      <c r="OU1" s="1">
+      <c r="OW1" s="1">
         <v>44153</v>
       </c>
-      <c r="OV1" s="1">
+      <c r="OX1" s="1">
         <v>44152</v>
       </c>
-      <c r="OW1" s="1">
+      <c r="OY1" s="1">
         <v>44151</v>
       </c>
-      <c r="OX1" s="1">
+      <c r="OZ1" s="1">
         <v>44150</v>
       </c>
-      <c r="OY1" s="1">
+      <c r="PA1" s="1">
         <v>44149</v>
       </c>
-      <c r="OZ1" s="1">
+      <c r="PB1" s="1">
         <v>44148</v>
       </c>
-      <c r="PA1" s="1">
+      <c r="PC1" s="1">
         <v>44147</v>
       </c>
-      <c r="PB1" s="1">
+      <c r="PD1" s="1">
         <v>44146</v>
       </c>
-      <c r="PC1" s="1">
+      <c r="PE1" s="1">
         <v>44145</v>
       </c>
-      <c r="PD1" s="1">
+      <c r="PF1" s="1">
         <v>44144</v>
       </c>
-      <c r="PE1" s="1">
+      <c r="PG1" s="1">
         <v>44143</v>
       </c>
-      <c r="PF1" s="1">
+      <c r="PH1" s="1">
         <v>44142</v>
       </c>
-      <c r="PG1" s="1">
+      <c r="PI1" s="1">
         <v>44141</v>
       </c>
-      <c r="PH1" s="1">
+      <c r="PJ1" s="1">
         <v>44140</v>
       </c>
-      <c r="PI1" s="1">
+      <c r="PK1" s="1">
         <v>44139</v>
       </c>
-      <c r="PJ1" s="1">
+      <c r="PL1" s="1">
         <v>44138</v>
       </c>
-      <c r="PK1" s="1">
+      <c r="PM1" s="1">
         <v>44137</v>
       </c>
-      <c r="PL1" s="1">
+      <c r="PN1" s="1">
         <v>44136</v>
       </c>
-      <c r="PM1" s="1">
+      <c r="PO1" s="1">
         <v>44135</v>
       </c>
-      <c r="PN1" s="1">
+      <c r="PP1" s="1">
         <v>44134</v>
       </c>
-      <c r="PO1" s="1">
+      <c r="PQ1" s="1">
         <v>44133</v>
       </c>
-      <c r="PP1" s="1">
+      <c r="PR1" s="1">
         <v>44132</v>
       </c>
-      <c r="PQ1" s="1">
+      <c r="PS1" s="1">
         <v>44131</v>
       </c>
-      <c r="PR1" s="1">
+      <c r="PT1" s="1">
         <v>44130</v>
       </c>
-      <c r="PS1" s="1">
+      <c r="PU1" s="1">
         <v>44129</v>
       </c>
-      <c r="PT1" s="1">
+      <c r="PV1" s="1">
         <v>44128</v>
       </c>
-      <c r="PU1" s="1">
+      <c r="PW1" s="1">
         <v>44127</v>
       </c>
-      <c r="PV1" s="1">
+      <c r="PX1" s="1">
         <v>44126</v>
       </c>
-      <c r="PW1" s="1">
+      <c r="PY1" s="1">
         <v>44125</v>
       </c>
-      <c r="PX1" s="1">
+      <c r="PZ1" s="1">
         <v>44124</v>
       </c>
-      <c r="PY1" s="1">
+      <c r="QA1" s="1">
         <v>44123</v>
       </c>
-      <c r="PZ1" s="1">
+      <c r="QB1" s="1">
         <v>44122</v>
       </c>
-      <c r="QA1" s="1">
+      <c r="QC1" s="1">
         <v>44121</v>
       </c>
-      <c r="QB1" s="1">
+      <c r="QD1" s="1">
         <v>44120</v>
       </c>
-      <c r="QC1" s="1">
+      <c r="QE1" s="1">
         <v>44119</v>
       </c>
-      <c r="QD1" s="1">
+      <c r="QF1" s="1">
         <v>44118</v>
       </c>
-      <c r="QE1" s="1">
+      <c r="QG1" s="1">
         <v>44117</v>
       </c>
-      <c r="QF1" s="1">
+      <c r="QH1" s="1">
         <v>44116</v>
       </c>
-      <c r="QG1" s="1">
+      <c r="QI1" s="1">
         <v>44115</v>
       </c>
-      <c r="QH1" s="1">
+      <c r="QJ1" s="1">
         <v>44114</v>
       </c>
-      <c r="QI1" s="1">
+      <c r="QK1" s="1">
         <v>44113</v>
       </c>
-      <c r="QJ1" s="1">
+      <c r="QL1" s="1">
         <v>44112</v>
       </c>
-      <c r="QK1" s="1">
+      <c r="QM1" s="1">
         <v>44111</v>
       </c>
-      <c r="QL1" s="1">
+      <c r="QN1" s="1">
         <v>44110</v>
       </c>
-      <c r="QM1" s="1">
+      <c r="QO1" s="1">
         <v>44109</v>
       </c>
-      <c r="QN1" s="1">
+      <c r="QP1" s="1">
         <v>44108</v>
       </c>
-      <c r="QO1" s="1">
+      <c r="QQ1" s="1">
         <v>44107</v>
       </c>
-      <c r="QP1" s="1">
+      <c r="QR1" s="1">
         <v>44106</v>
       </c>
-      <c r="QQ1" s="1">
+      <c r="QS1" s="1">
         <v>44105</v>
       </c>
-      <c r="QR1" s="1">
+      <c r="QT1" s="1">
         <v>44104</v>
       </c>
-      <c r="QS1" s="1">
+      <c r="QU1" s="1">
         <v>44103</v>
       </c>
-      <c r="QT1" s="1">
+      <c r="QV1" s="1">
         <v>44102</v>
       </c>
-      <c r="QU1" s="1">
+      <c r="QW1" s="1">
         <v>44101</v>
       </c>
-      <c r="QV1" s="1">
+      <c r="QX1" s="1">
         <v>44100</v>
       </c>
-      <c r="QW1" s="1">
+      <c r="QY1" s="1">
         <v>44099</v>
       </c>
-      <c r="QX1" s="1">
+      <c r="QZ1" s="1">
         <v>44098</v>
       </c>
-      <c r="QY1" s="1">
+      <c r="RA1" s="1">
         <v>44097</v>
       </c>
-      <c r="QZ1" s="1">
+      <c r="RB1" s="1">
         <v>44096</v>
       </c>
-      <c r="RA1" s="1">
+      <c r="RC1" s="1">
         <v>44095</v>
       </c>
-      <c r="RB1" s="1">
+      <c r="RD1" s="1">
         <v>44094</v>
       </c>
-      <c r="RC1" s="1">
+      <c r="RE1" s="1">
         <v>44093</v>
       </c>
-      <c r="RD1" s="1">
+      <c r="RF1" s="1">
         <v>44092</v>
       </c>
-      <c r="RE1" s="1">
+      <c r="RG1" s="1">
         <v>44091</v>
       </c>
-      <c r="RF1" s="1">
+      <c r="RH1" s="1">
         <v>44090</v>
       </c>
-      <c r="RG1" s="1">
+      <c r="RI1" s="1">
         <v>44089</v>
       </c>
-      <c r="RH1" s="1">
+      <c r="RJ1" s="1">
         <v>44088</v>
       </c>
-      <c r="RI1" s="1">
+      <c r="RK1" s="1">
         <v>44087</v>
       </c>
-      <c r="RJ1" s="1">
+      <c r="RL1" s="1">
         <v>44086</v>
       </c>
-      <c r="RK1" s="1">
+      <c r="RM1" s="1">
         <v>44085</v>
       </c>
-      <c r="RL1" s="1">
+      <c r="RN1" s="1">
         <v>44084</v>
       </c>
-      <c r="RM1" s="1">
+      <c r="RO1" s="1">
         <v>44083</v>
       </c>
-      <c r="RN1" s="1">
+      <c r="RP1" s="1">
         <v>44082</v>
       </c>
-      <c r="RO1" s="1">
+      <c r="RQ1" s="1">
         <v>44081</v>
       </c>
-      <c r="RP1" s="1">
+      <c r="RR1" s="1">
         <v>44080</v>
       </c>
-      <c r="RQ1" s="1">
+      <c r="RS1" s="1">
         <v>44079</v>
       </c>
-      <c r="RR1" s="1">
+      <c r="RT1" s="1">
         <v>44078</v>
       </c>
-      <c r="RS1" s="1">
+      <c r="RU1" s="1">
         <v>44077</v>
       </c>
-      <c r="RT1" s="1">
+      <c r="RV1" s="1">
         <v>44076</v>
       </c>
-      <c r="RU1" s="1">
+      <c r="RW1" s="1">
         <v>44075</v>
       </c>
-      <c r="RV1" s="1">
+      <c r="RX1" s="1">
         <v>44074</v>
       </c>
-      <c r="RW1" s="1">
+      <c r="RY1" s="1">
         <v>44073</v>
       </c>
-      <c r="RX1" s="1">
+      <c r="RZ1" s="1">
         <v>44072</v>
       </c>
-      <c r="RY1" s="1">
+      <c r="SA1" s="1">
         <v>44071</v>
       </c>
-      <c r="RZ1" s="1">
+      <c r="SB1" s="1">
         <v>44070</v>
       </c>
-      <c r="SA1" s="1">
+      <c r="SC1" s="1">
         <v>44069</v>
       </c>
-      <c r="SB1" s="1">
+      <c r="SD1" s="1">
         <v>44068</v>
       </c>
-      <c r="SC1" s="1">
+      <c r="SE1" s="1">
         <v>44067</v>
       </c>
-      <c r="SD1" s="1">
+      <c r="SF1" s="1">
         <v>44066</v>
       </c>
-      <c r="SE1" s="1">
+      <c r="SG1" s="1">
         <v>44065</v>
       </c>
-      <c r="SF1" s="1">
+      <c r="SH1" s="1">
         <v>44064</v>
       </c>
-      <c r="SG1" s="1">
+      <c r="SI1" s="1">
         <v>44063</v>
       </c>
-      <c r="SH1" s="1">
+      <c r="SJ1" s="1">
         <v>44062</v>
       </c>
-      <c r="SI1" s="1">
+      <c r="SK1" s="1">
         <v>44061</v>
       </c>
-      <c r="SJ1" s="1">
+      <c r="SL1" s="1">
         <v>44060</v>
       </c>
-      <c r="SK1" s="1">
+      <c r="SM1" s="1">
         <v>44059</v>
       </c>
-      <c r="SL1" s="1">
+      <c r="SN1" s="1">
         <v>44058</v>
       </c>
-      <c r="SM1" s="1">
+      <c r="SO1" s="1">
         <v>44057</v>
       </c>
-      <c r="SN1" s="1">
+      <c r="SP1" s="1">
         <v>44056</v>
       </c>
-      <c r="SO1" s="1">
+      <c r="SQ1" s="1">
         <v>44055</v>
       </c>
-      <c r="SP1" s="1">
+      <c r="SR1" s="1">
         <v>44054</v>
       </c>
-      <c r="SQ1" s="1">
+      <c r="SS1" s="1">
         <v>44053</v>
       </c>
-      <c r="SR1" s="1">
+      <c r="ST1" s="1">
         <v>44052</v>
       </c>
-      <c r="SS1" s="1">
+      <c r="SU1" s="1">
         <v>44051</v>
       </c>
-      <c r="ST1" s="1">
+      <c r="SV1" s="1">
         <v>44050</v>
       </c>
-      <c r="SU1" s="1">
+      <c r="SW1" s="1">
         <v>44049</v>
       </c>
-      <c r="SV1" s="1">
+      <c r="SX1" s="1">
         <v>44048</v>
       </c>
-      <c r="SW1" s="1">
+      <c r="SY1" s="1">
         <v>44047</v>
       </c>
-      <c r="SX1" s="1">
+      <c r="SZ1" s="1">
         <v>44046</v>
       </c>
-      <c r="SY1" s="1">
+      <c r="TA1" s="1">
         <v>44045</v>
       </c>
-      <c r="SZ1" s="1">
+      <c r="TB1" s="1">
         <v>44044</v>
       </c>
-      <c r="TA1" s="1">
+      <c r="TC1" s="1">
         <v>44043</v>
       </c>
-      <c r="TB1" s="1">
+      <c r="TD1" s="1">
         <v>44042</v>
       </c>
-      <c r="TC1" s="1">
+      <c r="TE1" s="1">
         <v>44041</v>
       </c>
-      <c r="TD1" s="1">
+      <c r="TF1" s="1">
         <v>44040</v>
       </c>
-      <c r="TE1" s="1">
+      <c r="TG1" s="1">
         <v>44039</v>
       </c>
-      <c r="TF1" s="1">
+      <c r="TH1" s="1">
         <v>44038</v>
       </c>
-      <c r="TG1" s="1">
+      <c r="TI1" s="1">
         <v>44037</v>
       </c>
-      <c r="TH1" s="1">
+      <c r="TJ1" s="1">
         <v>44036</v>
       </c>
-      <c r="TI1" s="1">
+      <c r="TK1" s="1">
         <v>44035</v>
       </c>
-      <c r="TJ1" s="1">
+      <c r="TL1" s="1">
         <v>44034</v>
       </c>
-      <c r="TK1" s="1">
+      <c r="TM1" s="1">
         <v>44033</v>
       </c>
-      <c r="TL1" s="1">
+      <c r="TN1" s="1">
         <v>44032</v>
       </c>
-      <c r="TM1" s="1">
+      <c r="TO1" s="1">
         <v>44031</v>
       </c>
-      <c r="TN1" s="1">
+      <c r="TP1" s="1">
         <v>44030</v>
       </c>
-      <c r="TO1" s="1">
+      <c r="TQ1" s="1">
         <v>44029</v>
       </c>
-      <c r="TP1" s="1">
+      <c r="TR1" s="1">
         <v>44028</v>
       </c>
-      <c r="TQ1" s="1">
+      <c r="TS1" s="1">
         <v>44027</v>
       </c>
-      <c r="TR1" s="1">
+      <c r="TT1" s="1">
         <v>44026</v>
       </c>
-      <c r="TS1" s="1">
+      <c r="TU1" s="1">
         <v>44025</v>
       </c>
-      <c r="TT1" s="1">
+      <c r="TV1" s="1">
         <v>44024</v>
       </c>
-      <c r="TU1" s="1">
+      <c r="TW1" s="1">
         <v>44023</v>
       </c>
-      <c r="TV1" s="1">
+      <c r="TX1" s="1">
         <v>44022</v>
       </c>
-      <c r="TW1" s="1">
+      <c r="TY1" s="1">
         <v>44021</v>
       </c>
-      <c r="TX1" s="1">
+      <c r="TZ1" s="1">
         <v>44020</v>
       </c>
-      <c r="TY1" s="1">
+      <c r="UA1" s="1">
         <v>44019</v>
       </c>
-      <c r="TZ1" s="1">
+      <c r="UB1" s="1">
         <v>44018</v>
       </c>
-      <c r="UA1" s="1">
+      <c r="UC1" s="1">
         <v>44017</v>
       </c>
-      <c r="UB1" s="1">
+      <c r="UD1" s="1">
         <v>44016</v>
       </c>
-      <c r="UC1" s="1">
+      <c r="UE1" s="1">
         <v>44015</v>
       </c>
-      <c r="UD1" s="1">
+      <c r="UF1" s="1">
         <v>44014</v>
       </c>
-      <c r="UE1" s="1">
+      <c r="UG1" s="1">
         <v>44013</v>
       </c>
-      <c r="UF1" s="1">
+      <c r="UH1" s="1">
         <v>44012</v>
       </c>
-      <c r="UG1" s="1">
+      <c r="UI1" s="1">
         <v>44011</v>
       </c>
-      <c r="UH1" s="1">
+      <c r="UJ1" s="1">
         <v>44010</v>
       </c>
-      <c r="UI1" s="1">
+      <c r="UK1" s="1">
         <v>44009</v>
       </c>
-      <c r="UJ1" s="1">
+      <c r="UL1" s="1">
         <v>44008</v>
       </c>
-      <c r="UK1" s="1">
+      <c r="UM1" s="1">
         <v>44007</v>
       </c>
-      <c r="UL1" s="1">
+      <c r="UN1" s="1">
         <v>44006</v>
       </c>
-      <c r="UM1" s="1">
+      <c r="UO1" s="1">
         <v>44005</v>
       </c>
-      <c r="UN1" s="1">
+      <c r="UP1" s="1">
         <v>44004</v>
       </c>
-      <c r="UO1" s="1">
+      <c r="UQ1" s="1">
         <v>44003</v>
       </c>
-      <c r="UP1" s="1">
+      <c r="UR1" s="1">
         <v>44002</v>
       </c>
-      <c r="UQ1" s="1">
+      <c r="US1" s="1">
         <v>44001</v>
       </c>
-      <c r="UR1" s="1">
+      <c r="UT1" s="1">
         <v>44000</v>
       </c>
-      <c r="US1" s="1">
+      <c r="UU1" s="1">
         <v>43999</v>
       </c>
-      <c r="UT1" s="1">
+      <c r="UV1" s="1">
         <v>43998</v>
       </c>
-      <c r="UU1" s="1">
+      <c r="UW1" s="1">
         <v>43997</v>
       </c>
-      <c r="UV1" s="1">
+      <c r="UX1" s="1">
         <v>43996</v>
       </c>
-      <c r="UW1" s="1">
+      <c r="UY1" s="1">
         <v>43995</v>
       </c>
-      <c r="UX1" s="1">
+      <c r="UZ1" s="1">
         <v>43994</v>
       </c>
-      <c r="UY1" s="1">
+      <c r="VA1" s="1">
         <v>43993</v>
       </c>
-      <c r="UZ1" s="1">
+      <c r="VB1" s="1">
         <v>43992</v>
       </c>
-      <c r="VA1" s="1">
+      <c r="VC1" s="1">
         <v>43991</v>
       </c>
-      <c r="VB1" s="1">
+      <c r="VD1" s="1">
         <v>43990</v>
       </c>
-      <c r="VC1" s="1">
+      <c r="VE1" s="1">
         <v>43989</v>
       </c>
-      <c r="VD1" s="1">
+      <c r="VF1" s="1">
         <v>43988</v>
       </c>
-      <c r="VE1" s="1">
+      <c r="VG1" s="1">
         <v>43987</v>
       </c>
-      <c r="VF1" s="1">
+      <c r="VH1" s="1">
         <v>43986</v>
       </c>
-      <c r="VG1" s="1">
+      <c r="VI1" s="1">
         <v>43985</v>
       </c>
-      <c r="VH1" s="1">
+      <c r="VJ1" s="1">
         <v>43984</v>
       </c>
-      <c r="VI1" s="1">
+      <c r="VK1" s="1">
         <v>43983</v>
       </c>
-      <c r="VJ1" s="1">
+      <c r="VL1" s="1">
         <v>43982</v>
       </c>
-      <c r="VK1" s="1">
+      <c r="VM1" s="1">
         <v>43981</v>
       </c>
-      <c r="VL1" s="1">
+      <c r="VN1" s="1">
         <v>43980</v>
       </c>
-      <c r="VM1" s="1">
+      <c r="VO1" s="1">
         <v>43979</v>
       </c>
-      <c r="VN1" s="1">
+      <c r="VP1" s="1">
         <v>43978</v>
       </c>
-      <c r="VO1" s="1">
+      <c r="VQ1" s="1">
         <v>43977</v>
       </c>
-      <c r="VP1" s="1">
+      <c r="VR1" s="1">
         <v>43976</v>
       </c>
-      <c r="VQ1" s="1">
+      <c r="VS1" s="1">
         <v>43975</v>
       </c>
-      <c r="VR1" s="1">
+      <c r="VT1" s="1">
         <v>43974</v>
       </c>
-      <c r="VS1" s="1">
+      <c r="VU1" s="1">
         <v>43973</v>
       </c>
-      <c r="VT1" s="1">
+      <c r="VV1" s="1">
         <v>43972</v>
       </c>
-      <c r="VU1" s="1">
+      <c r="VW1" s="1">
         <v>43971</v>
       </c>
-      <c r="VV1" s="1">
+      <c r="VX1" s="1">
         <v>43970</v>
       </c>
-      <c r="VW1" s="1">
+      <c r="VY1" s="1">
         <v>43969</v>
       </c>
-      <c r="VX1" s="1">
+      <c r="VZ1" s="1">
         <v>43968</v>
       </c>
-      <c r="VY1" s="1">
+      <c r="WA1" s="1">
         <v>43967</v>
       </c>
-      <c r="VZ1" s="1">
+      <c r="WB1" s="1">
         <v>43966</v>
       </c>
-      <c r="WA1" s="1">
+      <c r="WC1" s="1">
         <v>43965</v>
       </c>
-      <c r="WB1" s="1">
+      <c r="WD1" s="1">
         <v>43964</v>
       </c>
-      <c r="WC1" s="1">
+      <c r="WE1" s="1">
         <v>43963</v>
       </c>
-      <c r="WD1" s="1">
+      <c r="WF1" s="1">
         <v>43962</v>
       </c>
-      <c r="WE1" s="1">
+      <c r="WG1" s="1">
         <v>43961</v>
       </c>
-      <c r="WF1" s="1">
+      <c r="WH1" s="1">
         <v>43960</v>
       </c>
-      <c r="WG1" s="1">
+      <c r="WI1" s="1">
         <v>43959</v>
       </c>
-      <c r="WH1" s="1">
+      <c r="WJ1" s="1">
         <v>43958</v>
       </c>
-      <c r="WI1" s="1">
+      <c r="WK1" s="1">
         <v>43957</v>
       </c>
-      <c r="WJ1" s="1">
+      <c r="WL1" s="1">
         <v>43956</v>
       </c>
-      <c r="WK1" s="1">
+      <c r="WM1" s="1">
         <v>43955</v>
       </c>
-      <c r="WL1" s="1">
+      <c r="WN1" s="1">
         <v>43954</v>
       </c>
-      <c r="WM1" s="1">
+      <c r="WO1" s="1">
         <v>43953</v>
       </c>
-      <c r="WN1" s="1">
+      <c r="WP1" s="1">
         <v>43952</v>
       </c>
-      <c r="WO1" s="1">
+      <c r="WQ1" s="1">
         <v>43951</v>
       </c>
-      <c r="WP1" s="1">
+      <c r="WR1" s="1">
         <v>43950</v>
       </c>
-      <c r="WQ1" s="1">
+      <c r="WS1" s="1">
         <v>43949</v>
       </c>
-      <c r="WR1" s="1">
+      <c r="WT1" s="1">
         <v>43948</v>
       </c>
-      <c r="WS1" s="1">
+      <c r="WU1" s="1">
         <v>43947</v>
       </c>
-      <c r="WT1" s="1">
+      <c r="WV1" s="1">
         <v>43946</v>
       </c>
-      <c r="WU1" s="1">
+      <c r="WW1" s="1">
         <v>43945</v>
       </c>
-      <c r="WV1" s="1">
+      <c r="WX1" s="1">
         <v>43944</v>
       </c>
-      <c r="WW1" s="1">
+      <c r="WY1" s="1">
         <v>43943</v>
       </c>
-      <c r="WX1" s="1">
+      <c r="WZ1" s="1">
         <v>43942</v>
       </c>
-      <c r="WY1" s="1">
+      <c r="XA1" s="1">
         <v>43941</v>
       </c>
-      <c r="WZ1" s="1">
+      <c r="XB1" s="1">
         <v>43940</v>
       </c>
-      <c r="XA1" s="1">
+      <c r="XC1" s="1">
         <v>43939</v>
       </c>
-      <c r="XB1" s="1">
+      <c r="XD1" s="1">
         <v>43938</v>
       </c>
-      <c r="XC1" s="1">
+      <c r="XE1" s="1">
         <v>43937</v>
       </c>
-      <c r="XD1" s="1">
+      <c r="XF1" s="1">
         <v>43936</v>
       </c>
-      <c r="XE1" s="1">
+      <c r="XG1" s="1">
         <v>43935</v>
       </c>
-      <c r="XF1" s="1">
+      <c r="XH1" s="1">
         <v>43934</v>
       </c>
-      <c r="XG1" s="1">
+      <c r="XI1" s="1">
         <v>43933</v>
       </c>
-      <c r="XH1" s="1">
+      <c r="XJ1" s="1">
         <v>43932</v>
       </c>
-      <c r="XI1" s="1">
+      <c r="XK1" s="1">
         <v>43931</v>
       </c>
-      <c r="XJ1" s="1">
+      <c r="XL1" s="1">
         <v>43930</v>
       </c>
-      <c r="XK1" s="1">
+      <c r="XM1" s="1">
         <v>43929</v>
       </c>
-      <c r="XL1" s="1">
+      <c r="XN1" s="1">
         <v>43928</v>
       </c>
-      <c r="XM1" s="1">
+      <c r="XO1" s="1">
         <v>43927</v>
       </c>
-      <c r="XN1" s="1">
+      <c r="XP1" s="1">
         <v>43926</v>
       </c>
-      <c r="XO1" s="1">
+      <c r="XQ1" s="1">
         <v>43925</v>
       </c>
-      <c r="XP1" s="1">
+      <c r="XR1" s="1">
         <v>43924</v>
       </c>
-      <c r="XQ1" s="1">
+      <c r="XS1" s="1">
         <v>43923</v>
       </c>
-      <c r="XR1" s="1">
+      <c r="XT1" s="1">
         <v>43922</v>
       </c>
-      <c r="XS1" s="1">
+      <c r="XU1" s="1">
         <v>43921</v>
       </c>
-      <c r="XT1" s="1">
+      <c r="XV1" s="1">
         <v>43920</v>
       </c>
-      <c r="XU1" s="1">
+      <c r="XW1" s="1">
         <v>43919</v>
       </c>
-      <c r="XV1" s="1">
+      <c r="XX1" s="1">
         <v>43918</v>
       </c>
-      <c r="XW1" s="1">
+      <c r="XY1" s="1">
         <v>43917</v>
       </c>
-      <c r="XX1" s="1">
+      <c r="XZ1" s="1">
         <v>43916</v>
       </c>
-      <c r="XY1" s="1">
+      <c r="YA1" s="1">
         <v>43915</v>
       </c>
-      <c r="XZ1" s="1">
+      <c r="YB1" s="1">
         <v>43914</v>
       </c>
-      <c r="YA1" s="1">
+      <c r="YC1" s="1">
         <v>43913</v>
       </c>
-      <c r="YB1" s="1">
+      <c r="YD1" s="1">
         <v>43912</v>
       </c>
-      <c r="YC1" s="1">
+      <c r="YE1" s="1">
         <v>43911</v>
       </c>
-      <c r="YD1" s="1">
+      <c r="YF1" s="1">
         <v>43910</v>
       </c>
-      <c r="YE1" s="1">
+      <c r="YG1" s="1">
         <v>43909</v>
       </c>
-      <c r="YF1" s="1">
+      <c r="YH1" s="1">
         <v>43908</v>
       </c>
-      <c r="YG1" s="1">
+      <c r="YI1" s="1">
         <v>43907</v>
       </c>
-      <c r="YH1" s="1">
+      <c r="YJ1" s="1">
         <v>43906</v>
       </c>
-      <c r="YI1" s="1">
+      <c r="YK1" s="1">
         <v>43905</v>
       </c>
-      <c r="YJ1" s="1">
+      <c r="YL1" s="1">
         <v>43904</v>
       </c>
-      <c r="YK1" s="1">
+      <c r="YM1" s="1">
         <v>43903</v>
       </c>
-      <c r="YL1" s="1">
+      <c r="YN1" s="1">
         <v>43902</v>
       </c>
-      <c r="YM1" s="1">
+      <c r="YO1" s="1">
         <v>43901</v>
       </c>
-      <c r="YN1" s="1">
+      <c r="YP1" s="1">
         <v>43900</v>
       </c>
-      <c r="YO1" s="1">
+      <c r="YQ1" s="1">
         <v>43899</v>
       </c>
-      <c r="YP1" s="1">
+      <c r="YR1" s="1">
         <v>43898</v>
       </c>
-      <c r="YQ1" s="1">
+      <c r="YS1" s="1">
         <v>43897</v>
       </c>
-      <c r="YR1" s="1">
+      <c r="YT1" s="1">
         <v>43896</v>
       </c>
-      <c r="YS1" s="1">
+      <c r="YU1" s="1">
         <v>43895</v>
       </c>
-      <c r="YT1" s="1">
+      <c r="YV1" s="1">
         <v>43894</v>
       </c>
-      <c r="YU1" s="1">
+      <c r="YW1" s="1">
         <v>43893</v>
       </c>
-      <c r="YV1" s="1">
+      <c r="YX1" s="1">
         <v>43892</v>
       </c>
-      <c r="YW1" s="1">
+      <c r="YY1" s="1">
         <v>43891</v>
       </c>
-      <c r="YX1" s="1">
+      <c r="YZ1" s="1">
         <v>43890</v>
       </c>
-      <c r="YY1" s="1">
+      <c r="ZA1" s="1">
         <v>43889</v>
       </c>
-      <c r="YZ1" s="1">
+      <c r="ZB1" s="1">
         <v>43888</v>
       </c>
-      <c r="ZA1" s="1">
+      <c r="ZC1" s="1">
         <v>43887</v>
       </c>
-      <c r="ZB1" s="1">
+      <c r="ZD1" s="1">
         <v>43886</v>
       </c>
-      <c r="ZC1" s="1">
+      <c r="ZE1" s="1">
         <v>43885</v>
       </c>
-      <c r="ZD1" s="1">
+      <c r="ZF1" s="1">
         <v>43884</v>
       </c>
-      <c r="ZE1" s="1">
+      <c r="ZG1" s="1">
         <v>43883</v>
       </c>
-      <c r="ZF1" s="1">
+      <c r="ZH1" s="1">
         <v>43882</v>
       </c>
-      <c r="ZG1" s="1">
+      <c r="ZI1" s="1">
         <v>43881</v>
       </c>
-      <c r="ZH1" s="1">
+      <c r="ZJ1" s="1">
         <v>43880</v>
       </c>
-      <c r="ZI1" s="1">
+      <c r="ZK1" s="1">
         <v>43879</v>
       </c>
-      <c r="ZJ1" s="1">
+      <c r="ZL1" s="1">
         <v>43878</v>
       </c>
-      <c r="ZK1" s="1">
+      <c r="ZM1" s="1">
         <v>43877</v>
       </c>
-      <c r="ZL1" s="1">
+      <c r="ZN1" s="1">
         <v>43876</v>
       </c>
-      <c r="ZM1" s="1">
+      <c r="ZO1" s="1">
         <v>43875</v>
       </c>
-      <c r="ZN1" s="1">
+      <c r="ZP1" s="1">
         <v>43874</v>
       </c>
-      <c r="ZO1" s="1">
+      <c r="ZQ1" s="1">
         <v>43873</v>
       </c>
-      <c r="ZP1" s="1">
+      <c r="ZR1" s="1">
         <v>43872</v>
       </c>
-      <c r="ZQ1" s="1">
+      <c r="ZS1" s="1">
         <v>43871</v>
       </c>
-      <c r="ZR1" s="1">
+      <c r="ZT1" s="1">
         <v>43870</v>
       </c>
-      <c r="ZS1" s="1">
+      <c r="ZU1" s="1">
         <v>43869</v>
       </c>
-      <c r="ZT1" s="1">
+      <c r="ZV1" s="1">
         <v>43868</v>
       </c>
-      <c r="ZU1" s="1">
+      <c r="ZW1" s="1">
         <v>43867</v>
       </c>
-      <c r="ZV1" s="1">
+      <c r="ZX1" s="1">
         <v>43866</v>
       </c>
-      <c r="ZW1" s="1">
+      <c r="ZY1" s="1">
         <v>43865</v>
       </c>
-      <c r="ZX1" s="1">
+      <c r="ZZ1" s="1">
         <v>43864</v>
       </c>
-      <c r="ZY1" s="1">
+      <c r="AAA1" s="1">
         <v>43863</v>
       </c>
-      <c r="ZZ1" s="1">
+      <c r="AAB1" s="1">
         <v>43862</v>
       </c>
-      <c r="AAA1" s="1">
+      <c r="AAC1" s="1">
         <v>43861</v>
       </c>
-      <c r="AAB1" s="1">
+      <c r="AAD1" s="1">
         <v>43860</v>
       </c>
-      <c r="AAC1" s="1">
+      <c r="AAE1" s="1">
         <v>43859</v>
       </c>
-      <c r="AAD1" s="1">
+      <c r="AAF1" s="1">
         <v>43858</v>
       </c>
-      <c r="AAE1" s="1">
+      <c r="AAG1" s="1">
         <v>43857</v>
       </c>
-      <c r="AAF1" s="1">
+      <c r="AAH1" s="1">
         <v>43856</v>
       </c>
-      <c r="AAG1" s="1">
+      <c r="AAI1" s="1">
         <v>43855</v>
       </c>
-      <c r="AAH1" s="1">
+      <c r="AAJ1" s="1">
         <v>43854</v>
       </c>
-      <c r="AAI1" s="1">
+      <c r="AAK1" s="1">
         <v>43853</v>
       </c>
-      <c r="AAJ1" s="1">
+      <c r="AAL1" s="1">
         <v>43852</v>
       </c>
-      <c r="AAK1" s="1">
+      <c r="AAM1" s="1">
         <v>43851</v>
       </c>
-      <c r="AAL1" s="1">
+      <c r="AAN1" s="1">
         <v>43850</v>
       </c>
-      <c r="AAM1" s="1">
+      <c r="AAO1" s="1">
         <v>43849</v>
       </c>
-      <c r="AAN1" s="1">
+      <c r="AAP1" s="1">
         <v>43848</v>
       </c>
-      <c r="AAO1" s="1">
+      <c r="AAQ1" s="1">
         <v>43847</v>
       </c>
-      <c r="AAP1" s="1">
+      <c r="AAR1" s="1">
         <v>43846</v>
       </c>
-      <c r="AAQ1" s="1">
+      <c r="AAS1" s="1">
         <v>43845</v>
       </c>
-      <c r="AAR1" s="1">
+      <c r="AAT1" s="1">
         <v>43844</v>
       </c>
-      <c r="AAS1" s="1">
+      <c r="AAU1" s="1">
         <v>43843</v>
       </c>
-      <c r="AAT1" s="1">
+      <c r="AAV1" s="1">
         <v>43842</v>
       </c>
-      <c r="AAU1" s="1">
+      <c r="AAW1" s="1">
         <v>43841</v>
       </c>
-      <c r="AAV1" s="1">
+      <c r="AAX1" s="1">
         <v>43840</v>
       </c>
-      <c r="AAW1" s="1">
+      <c r="AAY1" s="1">
         <v>43839</v>
       </c>
-      <c r="AAX1" s="1">
+      <c r="AAZ1" s="1">
         <v>43838</v>
       </c>
-      <c r="AAY1" s="1">
+      <c r="ABA1" s="1">
         <v>43837</v>
       </c>
-      <c r="AAZ1" s="1">
+      <c r="ABB1" s="1">
         <v>43836</v>
       </c>
-      <c r="ABA1" s="1">
+      <c r="ABC1" s="1">
         <v>43835</v>
       </c>
-      <c r="ABB1" s="1">
+      <c r="ABD1" s="1">
         <v>43834</v>
       </c>
-      <c r="ABC1" s="1">
+      <c r="ABE1" s="1">
         <v>43833</v>
-      </c>
-      <c r="ABD1" s="1">
-        <v>43832</v>
-      </c>
-      <c r="ABE1" s="1">
-        <v>43831</v>
       </c>
     </row>
     <row r="2" spans="1:733" x14ac:dyDescent="0.3">
@@ -11939,29 +11952,6 @@
       <c r="ABE5">
         <v>131.52000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:733" x14ac:dyDescent="0.3">
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:733" x14ac:dyDescent="0.3">
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:733" x14ac:dyDescent="0.3">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:733" x14ac:dyDescent="0.3">
-      <c r="H15" s="1"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:733" x14ac:dyDescent="0.3">
-      <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H17" s="1"/>
